--- a/src/test/resources/EXCEL/FirefoxTestData.xlsx
+++ b/src/test/resources/EXCEL/FirefoxTestData.xlsx
@@ -138,22 +138,22 @@
     <t>kattupallidivya@gmail.com</t>
   </si>
   <si>
-    <t>sharmaabishaan@gmail.com</t>
-  </si>
-  <si>
-    <t>stellaabkomali@gmail.com</t>
-  </si>
-  <si>
-    <t>ravalabdarshan@gmail.com</t>
-  </si>
-  <si>
-    <t>reddyabphanideep@gmail.com</t>
-  </si>
-  <si>
-    <t>reddyabrohini@gmail.com</t>
-  </si>
-  <si>
-    <t>rekhaabpavitra@gmail.com</t>
+    <t>sharmaabishaan789@gmail.com</t>
+  </si>
+  <si>
+    <t>stellaabkomali789@gmail.com</t>
+  </si>
+  <si>
+    <t>ravalabdarshan789@gmail.com</t>
+  </si>
+  <si>
+    <t>reddyabphanideep789@gmail.com</t>
+  </si>
+  <si>
+    <t>reddyabrohini789@gmail.com</t>
+  </si>
+  <si>
+    <t>rekhaabpavitra789@gmail.com</t>
   </si>
 </sst>
 </file>
